--- a/Bursdager.xlsx
+++ b/Bursdager.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Oppfølging\Smartsign\Bursdager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43ABF79-A9CB-4D6F-BCC9-1A0309711CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4354E6-4669-4C1B-B131-515E9120FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7A1A0946-CA3D-4338-B571-D245B304128E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
   <si>
     <t>Espen</t>
   </si>
@@ -339,18 +339,6 @@
   </si>
   <si>
     <t>Fødselsdato:</t>
-  </si>
-  <si>
-    <t>Donald</t>
-  </si>
-  <si>
-    <t>Duck - Test</t>
-  </si>
-  <si>
-    <t>Mikke</t>
-  </si>
-  <si>
-    <t>Mus - Test</t>
   </si>
 </sst>
 </file>
@@ -753,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79710873-B00A-4E9B-AE35-AD3F0D8E0C59}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,26 +1337,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="4">
-        <v>45980</v>
-      </c>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="4">
-        <v>45981</v>
-      </c>
+      <c r="C55" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">

--- a/Bursdager.xlsx
+++ b/Bursdager.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Oppfølging\Smartsign\Bursdager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4354E6-4669-4C1B-B131-515E9120FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BF2231-E100-454A-A4D3-0A1D775938A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7A1A0946-CA3D-4338-B571-D245B304128E}"/>
   </bookViews>
@@ -742,7 +742,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:C55"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1333,7 @@
         <v>63</v>
       </c>
       <c r="C53" s="4">
-        <v>46021</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
